--- a/data/trans_orig/P47A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P47A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC22E3AE-1681-4B7B-A5D8-E5C9F7C52443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6950DCCC-B9B6-4161-9CF4-0C184923E279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CAFB566D-1884-4112-8608-4EEFE042BBBB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE271CF7-AFD3-4CE3-BBED-DFB12B49C24B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="929">
   <si>
     <t>Población según su autopercepción del peso respecto de su talla en 2007 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -845,1966 +845,1987 @@
     <t>11,98%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción del peso respecto de su talla en 2015 (Tasa respuesta: 98,87%)</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción del peso respecto de su talla en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción del peso respecto de su talla en 2015 (Tasa respuesta: 98,87%)</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción del peso respecto de su talla en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
     <t>30,9%</t>
   </si>
   <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
 </sst>
 </file>
@@ -3216,7 +3237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8952CE40-0BD2-41AC-9DFF-4756FC947387}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAAB15C-F289-4CEE-8CE7-06B84CFB88BE}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5149,7 +5170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF32199-D970-44B7-91DC-DB87289A8C13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445FFC5F-A40E-48E5-8C13-B472C04251D8}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5393,10 +5414,10 @@
         <v>288</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>289</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M6" s="7">
         <v>155</v>
@@ -5405,13 +5426,13 @@
         <v>155770</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5447,13 @@
         <v>7322</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -5441,13 +5462,13 @@
         <v>16913</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -5456,13 +5477,13 @@
         <v>24235</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,13 +5551,13 @@
         <v>44482</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H9" s="7">
         <v>31</v>
@@ -5545,13 +5566,13 @@
         <v>32668</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M9" s="7">
         <v>72</v>
@@ -5560,13 +5581,13 @@
         <v>77150</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,13 +5602,13 @@
         <v>476710</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H10" s="7">
         <v>326</v>
@@ -5596,13 +5617,13 @@
         <v>352039</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
         <v>790</v>
@@ -5611,13 +5632,13 @@
         <v>828749</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,13 +5653,13 @@
         <v>140923</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -5647,13 +5668,13 @@
         <v>164784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
         <v>294</v>
@@ -5662,13 +5683,13 @@
         <v>305707</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5704,13 @@
         <v>23074</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H12" s="7">
         <v>54</v>
@@ -5698,13 +5719,13 @@
         <v>57455</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M12" s="7">
         <v>77</v>
@@ -5713,13 +5734,13 @@
         <v>80529</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,10 +5811,10 @@
         <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>336</v>
+        <v>201</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -5802,13 +5823,13 @@
         <v>26872</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="M14" s="7">
         <v>48</v>
@@ -5820,10 +5841,10 @@
         <v>48</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>340</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5859,13 @@
         <v>412738</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H15" s="7">
         <v>355</v>
@@ -5853,13 +5874,13 @@
         <v>374909</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M15" s="7">
         <v>748</v>
@@ -5868,13 +5889,13 @@
         <v>787647</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,13 +5910,13 @@
         <v>197507</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>231</v>
@@ -5904,13 +5925,13 @@
         <v>250028</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>419</v>
@@ -5919,13 +5940,13 @@
         <v>447535</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5961,13 @@
         <v>44590</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>272</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -5955,13 +5976,13 @@
         <v>51021</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -5970,13 +5991,13 @@
         <v>95611</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,13 +6065,13 @@
         <v>14923</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -6059,13 +6080,13 @@
         <v>22858</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>370</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -6074,13 +6095,13 @@
         <v>37781</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6116,13 @@
         <v>346172</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H20" s="7">
         <v>267</v>
@@ -6110,13 +6131,13 @@
         <v>304056</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="M20" s="7">
         <v>577</v>
@@ -6125,13 +6146,13 @@
         <v>650228</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>314</v>
+        <v>382</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6167,13 @@
         <v>185868</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H21" s="7">
         <v>185</v>
@@ -6161,13 +6182,13 @@
         <v>211866</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M21" s="7">
         <v>356</v>
@@ -6176,13 +6197,13 @@
         <v>397734</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6197,13 +6218,13 @@
         <v>56692</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H22" s="7">
         <v>62</v>
@@ -6212,13 +6233,13 @@
         <v>71118</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -6227,13 +6248,13 @@
         <v>127810</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,10 +6322,10 @@
         <v>13855</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>403</v>
+        <v>126</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>404</v>
@@ -6334,10 +6355,10 @@
         <v>408</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>409</v>
+        <v>41</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>410</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6352,13 +6373,13 @@
         <v>227164</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H25" s="7">
         <v>175</v>
@@ -6367,13 +6388,13 @@
         <v>195680</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M25" s="7">
         <v>379</v>
@@ -6382,13 +6403,13 @@
         <v>422845</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6403,13 +6424,13 @@
         <v>151355</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H26" s="7">
         <v>165</v>
@@ -6418,13 +6439,13 @@
         <v>179785</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M26" s="7">
         <v>306</v>
@@ -6433,13 +6454,13 @@
         <v>331140</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6454,13 +6475,13 @@
         <v>32827</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="H27" s="7">
         <v>58</v>
@@ -6472,10 +6493,10 @@
         <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M27" s="7">
         <v>89</v>
@@ -6484,13 +6505,13 @@
         <v>96101</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6558,13 +6579,13 @@
         <v>14675</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -6573,13 +6594,13 @@
         <v>22549</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -6588,13 +6609,13 @@
         <v>37225</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,13 +6630,13 @@
         <v>313508</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="H30" s="7">
         <v>304</v>
@@ -6624,13 +6645,13 @@
         <v>328500</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M30" s="7">
         <v>590</v>
@@ -6639,13 +6660,13 @@
         <v>642009</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6660,13 +6681,13 @@
         <v>179661</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="H31" s="7">
         <v>260</v>
@@ -6675,13 +6696,13 @@
         <v>272141</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="M31" s="7">
         <v>422</v>
@@ -6690,13 +6711,13 @@
         <v>451803</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,13 +6732,13 @@
         <v>44364</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="H32" s="7">
         <v>98</v>
@@ -6726,13 +6747,13 @@
         <v>106694</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>466</v>
+        <v>399</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M32" s="7">
         <v>136</v>
@@ -6741,13 +6762,13 @@
         <v>151058</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6815,13 +6836,13 @@
         <v>165244</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>57</v>
+        <v>471</v>
       </c>
       <c r="H34" s="7">
         <v>124</v>
@@ -6833,10 +6854,10 @@
         <v>15</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M34" s="7">
         <v>282</v>
@@ -6845,13 +6866,13 @@
         <v>300757</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>476</v>
+        <v>372</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>477</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6866,13 +6887,13 @@
         <v>2103572</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H35" s="7">
         <v>1713</v>
@@ -6881,13 +6902,13 @@
         <v>1848193</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M35" s="7">
         <v>3689</v>
@@ -6896,13 +6917,13 @@
         <v>3951765</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6920,10 +6941,10 @@
         <v>255</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>352</v>
+        <v>484</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H36" s="7">
         <v>1089</v>
@@ -6935,10 +6956,10 @@
         <v>147</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M36" s="7">
         <v>1952</v>
@@ -6947,13 +6968,13 @@
         <v>2089688</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6968,13 +6989,13 @@
         <v>208869</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H37" s="7">
         <v>339</v>
@@ -6983,13 +7004,13 @@
         <v>366476</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>393</v>
+        <v>495</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M37" s="7">
         <v>525</v>
@@ -6998,13 +7019,13 @@
         <v>575345</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7082,7 +7103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DE4064-C312-4ADD-B0D5-7B7F05A1B9EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FA9DD1-E16E-4475-9AB6-E37F69A7E7FA}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7099,7 +7120,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7206,13 +7227,13 @@
         <v>36281</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -7221,13 +7242,13 @@
         <v>33550</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="M4" s="7">
         <v>68</v>
@@ -7236,10 +7257,10 @@
         <v>69831</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>508</v>
@@ -7380,7 +7401,7 @@
         <v>531</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>532</v>
+        <v>94</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -7389,13 +7410,13 @@
         <v>21593</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>130</v>
+        <v>532</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7463,13 +7484,13 @@
         <v>32447</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>363</v>
+        <v>534</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H9" s="7">
         <v>20</v>
@@ -7478,13 +7499,13 @@
         <v>18878</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="M9" s="7">
         <v>50</v>
@@ -7493,13 +7514,13 @@
         <v>51326</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>237</v>
+        <v>540</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7514,13 +7535,13 @@
         <v>424225</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>540</v>
+        <v>277</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H10" s="7">
         <v>383</v>
@@ -7529,13 +7550,13 @@
         <v>373961</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="M10" s="7">
         <v>794</v>
@@ -7544,13 +7565,13 @@
         <v>798186</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7565,13 +7586,13 @@
         <v>111668</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H11" s="7">
         <v>136</v>
@@ -7580,13 +7601,13 @@
         <v>131952</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
@@ -7595,13 +7616,13 @@
         <v>243619</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7616,13 +7637,13 @@
         <v>20229</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -7631,13 +7652,13 @@
         <v>34904</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M12" s="7">
         <v>55</v>
@@ -7646,13 +7667,13 @@
         <v>55134</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7720,13 +7741,13 @@
         <v>21855</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -7735,13 +7756,13 @@
         <v>25493</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
@@ -7750,13 +7771,13 @@
         <v>47348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7771,13 +7792,13 @@
         <v>442575</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H15" s="7">
         <v>406</v>
@@ -7786,13 +7807,13 @@
         <v>400884</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M15" s="7">
         <v>830</v>
@@ -7801,13 +7822,13 @@
         <v>843459</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7822,13 +7843,13 @@
         <v>164573</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H16" s="7">
         <v>176</v>
@@ -7837,13 +7858,13 @@
         <v>175849</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>491</v>
+        <v>587</v>
       </c>
       <c r="M16" s="7">
         <v>332</v>
@@ -7852,13 +7873,13 @@
         <v>340423</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7873,13 +7894,13 @@
         <v>34193</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -7888,13 +7909,13 @@
         <v>55473</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -7906,10 +7927,10 @@
         <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7980,10 +8001,10 @@
         <v>55</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>596</v>
+        <v>167</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>304</v>
+        <v>599</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -7992,13 +8013,13 @@
         <v>15697</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>202</v>
+        <v>601</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -8007,13 +8028,13 @@
         <v>38979</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>596</v>
+        <v>331</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8028,13 +8049,13 @@
         <v>355988</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>603</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>339</v>
@@ -8043,13 +8064,13 @@
         <v>365127</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>383</v>
+        <v>607</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="M20" s="7">
         <v>660</v>
@@ -8058,13 +8079,13 @@
         <v>721115</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,13 +8100,13 @@
         <v>211955</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="H21" s="7">
         <v>187</v>
@@ -8094,13 +8115,13 @@
         <v>199744</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>614</v>
+        <v>388</v>
       </c>
       <c r="M21" s="7">
         <v>378</v>
@@ -8109,13 +8130,13 @@
         <v>411699</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,13 +8151,13 @@
         <v>47818</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>309</v>
+        <v>621</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>618</v>
+        <v>462</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>619</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -8145,13 +8166,13 @@
         <v>64291</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="M22" s="7">
         <v>100</v>
@@ -8160,13 +8181,13 @@
         <v>112108</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>623</v>
+        <v>305</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,13 +8255,13 @@
         <v>17135</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>505</v>
+        <v>628</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -8249,13 +8270,13 @@
         <v>8829</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -8264,13 +8285,13 @@
         <v>25965</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>570</v>
+        <v>631</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>629</v>
+        <v>126</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>630</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,13 +8306,13 @@
         <v>247046</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H25" s="7">
         <v>203</v>
@@ -8300,13 +8321,13 @@
         <v>236351</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="M25" s="7">
         <v>424</v>
@@ -8315,13 +8336,13 @@
         <v>483397</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8336,13 +8357,13 @@
         <v>167986</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H26" s="7">
         <v>160</v>
@@ -8351,13 +8372,13 @@
         <v>181092</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="M26" s="7">
         <v>308</v>
@@ -8366,13 +8387,13 @@
         <v>349078</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8387,13 +8408,13 @@
         <v>43539</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H27" s="7">
         <v>53</v>
@@ -8402,13 +8423,13 @@
         <v>60857</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="M27" s="7">
         <v>91</v>
@@ -8417,13 +8438,13 @@
         <v>104396</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8491,13 +8512,13 @@
         <v>11626</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>656</v>
+        <v>442</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>658</v>
+        <v>237</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -8506,13 +8527,13 @@
         <v>30510</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>271</v>
+        <v>533</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M29" s="7">
         <v>38</v>
@@ -8521,13 +8542,13 @@
         <v>42136</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>662</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>92</v>
+        <v>663</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8542,13 +8563,13 @@
         <v>316725</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H30" s="7">
         <v>298</v>
@@ -8557,13 +8578,13 @@
         <v>355390</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M30" s="7">
         <v>639</v>
@@ -8572,13 +8593,13 @@
         <v>672114</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8593,13 +8614,13 @@
         <v>191993</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H31" s="7">
         <v>248</v>
@@ -8608,13 +8629,13 @@
         <v>292430</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M31" s="7">
         <v>450</v>
@@ -8623,13 +8644,13 @@
         <v>484423</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8644,13 +8665,13 @@
         <v>56469</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H32" s="7">
         <v>66</v>
@@ -8659,13 +8680,13 @@
         <v>78602</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M32" s="7">
         <v>120</v>
@@ -8674,13 +8695,13 @@
         <v>135071</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8748,13 +8769,13 @@
         <v>142626</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>627</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H34" s="7">
         <v>127</v>
@@ -8763,13 +8784,13 @@
         <v>132958</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>530</v>
+        <v>694</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>52</v>
+        <v>695</v>
       </c>
       <c r="M34" s="7">
         <v>261</v>
@@ -8778,13 +8799,13 @@
         <v>275584</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>693</v>
+        <v>302</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>87</v>
+        <v>695</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8799,13 +8820,13 @@
         <v>2125928</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H35" s="7">
         <v>1905</v>
@@ -8814,13 +8835,13 @@
         <v>2002152</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="M35" s="7">
         <v>3942</v>
@@ -8829,13 +8850,13 @@
         <v>4128079</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>608</v>
+        <v>704</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8850,13 +8871,13 @@
         <v>882046</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="H36" s="7">
         <v>986</v>
@@ -8865,13 +8886,13 @@
         <v>1057103</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="M36" s="7">
         <v>1820</v>
@@ -8880,13 +8901,13 @@
         <v>1939149</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8901,13 +8922,13 @@
         <v>211105</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="H37" s="7">
         <v>279</v>
@@ -8916,13 +8937,13 @@
         <v>306863</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>150</v>
+        <v>718</v>
       </c>
       <c r="M37" s="7">
         <v>472</v>
@@ -8931,13 +8952,13 @@
         <v>517968</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>715</v>
+        <v>683</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9015,7 +9036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF76116-8BAD-4A7E-80E7-7F8CC6E0EB2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822D63AC-7862-47BF-854B-02AE76EA260B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9032,7 +9053,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9139,13 +9160,13 @@
         <v>50610</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>688</v>
+        <v>723</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -9154,13 +9175,13 @@
         <v>55462</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -9169,13 +9190,13 @@
         <v>106072</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>725</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>726</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9190,13 +9211,13 @@
         <v>263572</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H5" s="7">
         <v>140</v>
@@ -9205,13 +9226,13 @@
         <v>237130</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="M5" s="7">
         <v>264</v>
@@ -9220,13 +9241,13 @@
         <v>500703</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9241,13 +9262,13 @@
         <v>55234</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>466</v>
+        <v>399</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="H6" s="7">
         <v>31</v>
@@ -9256,13 +9277,13 @@
         <v>46897</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -9271,13 +9292,13 @@
         <v>102130</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9292,13 +9313,13 @@
         <v>8263</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -9310,10 +9331,10 @@
         <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>748</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -9325,10 +9346,10 @@
         <v>530</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>749</v>
+        <v>532</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>660</v>
+        <v>750</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9399,7 +9420,7 @@
         <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>750</v>
+        <v>691</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>751</v>
@@ -9411,13 +9432,13 @@
         <v>36179</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>752</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>753</v>
+        <v>467</v>
       </c>
       <c r="M9" s="7">
         <v>53</v>
@@ -9426,13 +9447,13 @@
         <v>67437</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>624</v>
+        <v>753</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>83</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>754</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9447,13 +9468,13 @@
         <v>258047</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>755</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>757</v>
       </c>
       <c r="H10" s="7">
         <v>290</v>
@@ -9462,13 +9483,13 @@
         <v>322505</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>758</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>759</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>760</v>
       </c>
       <c r="M10" s="7">
         <v>483</v>
@@ -9477,13 +9498,13 @@
         <v>580552</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>761</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9498,13 +9519,13 @@
         <v>118360</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>764</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>766</v>
       </c>
       <c r="H11" s="7">
         <v>109</v>
@@ -9513,13 +9534,13 @@
         <v>110804</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>767</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>769</v>
       </c>
       <c r="M11" s="7">
         <v>184</v>
@@ -9528,13 +9549,13 @@
         <v>229164</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>770</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9549,13 +9570,13 @@
         <v>20731</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>773</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -9567,10 +9588,10 @@
         <v>774</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>369</v>
+        <v>775</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -9579,13 +9600,13 @@
         <v>49820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9653,13 +9674,13 @@
         <v>27768</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>439</v>
+        <v>780</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -9668,13 +9689,13 @@
         <v>35147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>537</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="M14" s="7">
         <v>71</v>
@@ -9683,13 +9704,13 @@
         <v>62914</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>783</v>
+        <v>519</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>238</v>
+        <v>785</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>784</v>
+        <v>715</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9707,10 +9728,10 @@
         <v>64</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H15" s="7">
         <v>502</v>
@@ -9719,7 +9740,7 @@
         <v>358230</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>787</v>
+        <v>580</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>788</v>
@@ -9737,10 +9758,10 @@
         <v>790</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>487</v>
+        <v>791</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9755,13 +9776,13 @@
         <v>155812</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>321</v>
+        <v>794</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="H16" s="7">
         <v>238</v>
@@ -9770,13 +9791,13 @@
         <v>151309</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="M16" s="7">
         <v>388</v>
@@ -9785,13 +9806,13 @@
         <v>307121</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9806,13 +9827,13 @@
         <v>39220</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>803</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -9821,13 +9842,13 @@
         <v>38790</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -9836,13 +9857,13 @@
         <v>78011</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9910,13 +9931,13 @@
         <v>17746</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>438</v>
+        <v>812</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>813</v>
       </c>
       <c r="H19" s="7">
         <v>44</v>
@@ -9925,13 +9946,13 @@
         <v>29066</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>809</v>
+        <v>778</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>810</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -9940,13 +9961,13 @@
         <v>46812</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>367</v>
+        <v>816</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>84</v>
+        <v>817</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9961,13 +9982,13 @@
         <v>346567</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="H20" s="7">
         <v>601</v>
@@ -9976,13 +9997,13 @@
         <v>393934</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>817</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="M20" s="7">
         <v>950</v>
@@ -9991,13 +10012,13 @@
         <v>740501</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10012,13 +10033,13 @@
         <v>296940</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>823</v>
+        <v>183</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="H21" s="7">
         <v>390</v>
@@ -10027,13 +10048,13 @@
         <v>259300</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>426</v>
+        <v>830</v>
       </c>
       <c r="M21" s="7">
         <v>627</v>
@@ -10042,13 +10063,13 @@
         <v>556240</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10063,13 +10084,13 @@
         <v>62736</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>831</v>
+        <v>286</v>
       </c>
       <c r="H22" s="7">
         <v>105</v>
@@ -10078,13 +10099,13 @@
         <v>64554</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="M22" s="7">
         <v>165</v>
@@ -10093,13 +10114,13 @@
         <v>127291</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>835</v>
+        <v>625</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10167,13 +10188,13 @@
         <v>24697</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>529</v>
+        <v>839</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -10182,13 +10203,13 @@
         <v>26685</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>114</v>
+        <v>843</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="M24" s="7">
         <v>69</v>
@@ -10197,13 +10218,13 @@
         <v>51383</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>658</v>
+        <v>123</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>846</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10218,13 +10239,13 @@
         <v>280313</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="H25" s="7">
         <v>461</v>
@@ -10236,10 +10257,10 @@
         <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="M25" s="7">
         <v>767</v>
@@ -10248,13 +10269,13 @@
         <v>561032</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10269,13 +10290,13 @@
         <v>235165</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="H26" s="7">
         <v>391</v>
@@ -10284,13 +10305,13 @@
         <v>229194</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>860</v>
       </c>
       <c r="M26" s="7">
         <v>652</v>
@@ -10299,13 +10320,13 @@
         <v>464360</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10320,13 +10341,13 @@
         <v>57838</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>736</v>
+        <v>864</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>682</v>
+        <v>865</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>858</v>
+        <v>464</v>
       </c>
       <c r="H27" s="7">
         <v>104</v>
@@ -10335,13 +10356,13 @@
         <v>58314</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>861</v>
+        <v>690</v>
       </c>
       <c r="M27" s="7">
         <v>172</v>
@@ -10350,13 +10371,13 @@
         <v>116152</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>801</v>
+        <v>868</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10424,13 +10445,13 @@
         <v>27607</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>866</v>
+        <v>534</v>
       </c>
       <c r="H29" s="7">
         <v>58</v>
@@ -10439,13 +10460,13 @@
         <v>32989</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>374</v>
+        <v>874</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>238</v>
+        <v>875</v>
       </c>
       <c r="M29" s="7">
         <v>95</v>
@@ -10454,13 +10475,13 @@
         <v>60597</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>870</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10475,13 +10496,13 @@
         <v>382599</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="H30" s="7">
         <v>876</v>
@@ -10490,13 +10511,13 @@
         <v>595743</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="M30" s="7">
         <v>1438</v>
@@ -10505,13 +10526,13 @@
         <v>978342</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>789</v>
+        <v>885</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10526,13 +10547,13 @@
         <v>240087</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="H31" s="7">
         <v>623</v>
@@ -10541,13 +10562,13 @@
         <v>320713</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="M31" s="7">
         <v>980</v>
@@ -10556,13 +10577,13 @@
         <v>560800</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10577,13 +10598,13 @@
         <v>46519</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>83</v>
+        <v>895</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>32</v>
+        <v>896</v>
       </c>
       <c r="H32" s="7">
         <v>144</v>
@@ -10592,13 +10613,13 @@
         <v>73246</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>331</v>
+        <v>493</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>887</v>
+        <v>474</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>834</v>
+        <v>897</v>
       </c>
       <c r="M32" s="7">
         <v>215</v>
@@ -10607,13 +10628,13 @@
         <v>119765</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>80</v>
+        <v>899</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10681,13 +10702,13 @@
         <v>179687</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="H34" s="7">
         <v>254</v>
@@ -10696,13 +10717,13 @@
         <v>215528</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>773</v>
+        <v>905</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="M34" s="7">
         <v>401</v>
@@ -10711,13 +10732,13 @@
         <v>395215</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>563</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10732,13 +10753,13 @@
         <v>1865551</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>898</v>
+        <v>377</v>
       </c>
       <c r="H35" s="7">
         <v>2870</v>
@@ -10747,13 +10768,13 @@
         <v>2188260</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="M35" s="7">
         <v>4738</v>
@@ -10762,13 +10783,13 @@
         <v>4053810</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10783,13 +10804,13 @@
         <v>1101598</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="H36" s="7">
         <v>1782</v>
@@ -10798,13 +10819,13 @@
         <v>1118217</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>910</v>
+        <v>921</v>
       </c>
       <c r="M36" s="7">
         <v>2884</v>
@@ -10813,13 +10834,13 @@
         <v>2219815</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>911</v>
+        <v>922</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>913</v>
+        <v>924</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10834,13 +10855,13 @@
         <v>235309</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>915</v>
+        <v>834</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="H37" s="7">
         <v>447</v>
@@ -10849,13 +10870,13 @@
         <v>279462</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>917</v>
+        <v>865</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>115</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
       <c r="M37" s="7">
         <v>703</v>
@@ -10864,13 +10885,13 @@
         <v>514770</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>919</v>
+        <v>715</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>921</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
